--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1061947.465956547</v>
+        <v>1059466.546131089</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>152.6831826571583</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335566</v>
@@ -1379,16 +1379,16 @@
         <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579958</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>5.267986155910934</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717756</v>
@@ -1430,10 +1430,10 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689272</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>77.82993386383838</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>89.45493997015768</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271172</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292096</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
         <v>192.6288026890428</v>
@@ -1607,13 +1607,13 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>57.07237960402189</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
@@ -1622,7 +1622,7 @@
         <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>238.4892660236714</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104945</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689272</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D16" t="n">
-        <v>106.645561884491</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>139.1056616719019</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>68.850179734061</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271172</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292096</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
@@ -1831,7 +1831,7 @@
         <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>255.770726968103</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>181.0742128875146</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245688</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290888</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D19" t="n">
-        <v>74.7201898124934</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085022</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721229</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330927</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411914</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>274.7162491948558</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>214.2140663782811</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>255.7707269681027</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>254.1613077246361</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290888</v>
+        <v>155.7512320878718</v>
       </c>
       <c r="D22" t="n">
-        <v>74.7201898124934</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085022</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721229</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330927</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411913</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,7 +2293,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>274.7162491948563</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245689</v>
+        <v>35.29247858245692</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V23" t="n">
         <v>253.856975264416</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290888</v>
+        <v>93.35153789290889</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7201898124934</v>
+        <v>74.72018981249342</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085022</v>
+        <v>72.53867944085023</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721229</v>
+        <v>71.52576481721231</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330927</v>
+        <v>92.13052505330928</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860184</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411916</v>
+        <v>22.45713720411917</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432839</v>
+        <v>15.0368694643284</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2734363206846</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>274.7162491948554</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2555,7 +2555,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524152</v>
       </c>
       <c r="D26" t="n">
         <v>307.7079050020904</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958307</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,22 +2950,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124552</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>91.27556587748671</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.106871388383</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115151</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482624</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092322</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>90.60953276887655</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,10 +3724,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>163.1068713883838</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592154</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893083</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279485</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538322</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052274</v>
+        <v>113.1013389531836</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>89.27723295061058</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538322</v>
+        <v>124.3541982182263</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846408</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>110.5480262953178</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.679286171953</v>
+        <v>1542.660985043703</v>
       </c>
       <c r="C11" t="n">
-        <v>1414.45384914452</v>
+        <v>1542.660985043703</v>
       </c>
       <c r="D11" t="n">
-        <v>1083.380217797493</v>
+        <v>1211.587353696676</v>
       </c>
       <c r="E11" t="n">
-        <v>724.7840324589724</v>
+        <v>852.9911683581554</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7840324589724</v>
+        <v>469.1973308282714</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636926</v>
+        <v>81.3169479329911</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>81.3169479329911</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3320.284623471887</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253116</v>
+        <v>3141.498943115832</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.481731786676</v>
+        <v>2915.160533649392</v>
       </c>
       <c r="V11" t="n">
-        <v>2616.61091170283</v>
+        <v>2611.289713565546</v>
       </c>
       <c r="W11" t="n">
-        <v>2291.034323692439</v>
+        <v>2611.289713565546</v>
       </c>
       <c r="X11" t="n">
-        <v>2291.034323692439</v>
+        <v>2265.016022564189</v>
       </c>
       <c r="Y11" t="n">
-        <v>1928.087058976351</v>
+        <v>1902.068757848101</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5109,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>737.2628520449013</v>
+        <v>418.3126375609349</v>
       </c>
       <c r="C13" t="n">
-        <v>595.5187363767179</v>
+        <v>276.5685218927517</v>
       </c>
       <c r="D13" t="n">
-        <v>595.5187363767179</v>
+        <v>276.5685218927517</v>
       </c>
       <c r="E13" t="n">
-        <v>474.7977100540484</v>
+        <v>276.5685218927517</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420905</v>
+        <v>156.8706416545649</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765331</v>
+        <v>156.8706416545649</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.285694000374</v>
@@ -5203,7 +5203,7 @@
         <v>368.9238220705055</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402567</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5224,25 +5224,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075785</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905035</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290402</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.885950344238</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.660847567001</v>
+        <v>967.1670306535516</v>
       </c>
       <c r="X13" t="n">
-        <v>930.8633639287077</v>
+        <v>766.3695470152578</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.2628520449013</v>
+        <v>572.769035131451</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1568.679286171953</v>
+        <v>1768.754402051653</v>
       </c>
       <c r="C14" t="n">
-        <v>1226.908836491265</v>
+        <v>1768.754402051653</v>
       </c>
       <c r="D14" t="n">
-        <v>895.8352051442381</v>
+        <v>1437.680770704626</v>
       </c>
       <c r="E14" t="n">
-        <v>838.1863368573473</v>
+        <v>1079.084585366106</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3924993274633</v>
+        <v>695.2907478362218</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>307.4103649409424</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.820141253117</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2920.481731786677</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2616.61091170283</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="W14" t="n">
-        <v>2291.03432369244</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="X14" t="n">
-        <v>2291.03432369244</v>
+        <v>2491.10943957214</v>
       </c>
       <c r="Y14" t="n">
-        <v>1928.087058976351</v>
+        <v>2128.162174856051</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>766.3695470152575</v>
+        <v>418.3126375609353</v>
       </c>
       <c r="C16" t="n">
-        <v>624.6254313470741</v>
+        <v>276.568521892752</v>
       </c>
       <c r="D16" t="n">
-        <v>516.90264156476</v>
+        <v>276.568521892752</v>
       </c>
       <c r="E16" t="n">
-        <v>396.1816152420904</v>
+        <v>276.568521892752</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420904</v>
+        <v>276.568521892752</v>
       </c>
       <c r="G16" t="n">
-        <v>255.670845876533</v>
+        <v>136.0577525271946</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5467,19 +5467,19 @@
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376951</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430788</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535511</v>
+        <v>967.1670306535517</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152575</v>
+        <v>766.3695470152578</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.3695470152575</v>
+        <v>572.7690351314513</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542002</v>
+        <v>1697.79283406037</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809387</v>
+        <v>1403.472017327755</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2289711446365</v>
+        <v>1119.848018928802</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>808.7014665383543</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628258</v>
+        <v>472.3572619565437</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5531,10 +5531,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5543,22 +5543,22 @@
         <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>2902.19961880031</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2624.072663737992</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2325.248605684709</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398326</v>
+        <v>2009.750973916694</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872289</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>474.827296267119</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625802</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604114</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356254</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454049</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096717</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542001</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.583240809387</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1224.583240809387</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
         <v>966.2289711446365</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5768,10 +5768,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,22 +5780,22 @@
         <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281941</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219624</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166341</v>
+        <v>2188.455293558377</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398326</v>
+        <v>1872.957661790362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872289</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C22" t="n">
-        <v>474.827296267119</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625802</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604113</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5941,19 +5941,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356254</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454049</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096717</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
@@ -6139,7 +6139,7 @@
         <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634014</v>
+        <v>96.06173179634015</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
@@ -6172,10 +6172,10 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342415</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119738</v>
+        <v>1654.802330256062</v>
       </c>
       <c r="U25" t="n">
         <v>1377.311169453178</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960316</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973148</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982175</v>
@@ -6409,25 +6409,25 @@
         <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>887.9771891384785</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3518.923563871311</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3977.401766380299</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572845</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.154208495152</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899657</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257033</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913836</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415465</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643389</v>
@@ -6616,16 +6616,16 @@
         <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,7 +6640,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277852</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,61 +6686,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.208754682581</v>
+        <v>2716.080607949975</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164794</v>
+        <v>3219.053078829312</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6774,31 +6774,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960305</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973136</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464977</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,25 +6935,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6965,19 +6965,19 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7014,25 +7014,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>740.9069705127575</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>670.642222158694</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>619.1970173202017</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>471.2839237378085</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>211.3835458221369</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7123,22 +7123,22 @@
         <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058688</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
         <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>877.9803925153274</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X37" t="n">
-        <v>649.99084161731</v>
+        <v>946.0051453388406</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>823.8840007691539</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,40 +7184,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127577</v>
+        <v>599.602264964779</v>
       </c>
       <c r="C40" t="n">
-        <v>571.9707875848508</v>
+        <v>529.3375166107155</v>
       </c>
       <c r="D40" t="n">
-        <v>421.854148172515</v>
+        <v>477.8923117722232</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639653</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398984</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
-        <v>255.3625741884609</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7360,7 +7360,7 @@
         <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
         <v>1422.082050758175</v>
@@ -7369,13 +7369,13 @@
         <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663014</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388405</v>
+        <v>946.0051453388407</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691539</v>
+        <v>781.2507297950187</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464964</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307324</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650713</v>
+        <v>642.2355359389142</v>
       </c>
       <c r="C43" t="n">
-        <v>473.299353011008</v>
+        <v>527.9917592185267</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725157</v>
+        <v>476.5465543800344</v>
       </c>
       <c r="E43" t="n">
-        <v>372.6124891639662</v>
+        <v>427.3048953714847</v>
       </c>
       <c r="F43" t="n">
-        <v>324.3939762398994</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G43" t="n">
-        <v>156.6911396146183</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7597,22 +7597,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552288</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891714</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649977</v>
+        <v>946.0051453388405</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214676</v>
+        <v>725.2125661953104</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7661,7 +7661,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7670,28 +7670,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7746,7 +7746,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650711</v>
+        <v>599.602264964779</v>
       </c>
       <c r="C46" t="n">
-        <v>473.2993530110077</v>
+        <v>529.3375166107155</v>
       </c>
       <c r="D46" t="n">
-        <v>421.8541481725155</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E46" t="n">
-        <v>372.612489163966</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>324.3939762398991</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
         <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>877.9803925153276</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X46" t="n">
-        <v>748.6622761911538</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.5411316214672</v>
+        <v>725.2125661953106</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430621</v>
+        <v>157.2353108430627</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728993</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389586</v>
+        <v>191.4948909389597</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333047</v>
+        <v>181.0856325333059</v>
       </c>
       <c r="N8" t="n">
-        <v>179.355374883022</v>
+        <v>179.3553748830233</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383971</v>
+        <v>182.8301554383983</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586568</v>
+        <v>190.8908035586578</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266112</v>
+        <v>192.0103836266119</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875968</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372523</v>
+        <v>113.6031223372529</v>
       </c>
       <c r="L9" t="n">
-        <v>105.962971867226</v>
+        <v>105.9629718672269</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253577</v>
+        <v>104.1013981253587</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677494</v>
+        <v>92.30246558677591</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359721</v>
+        <v>106.882960835973</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798312</v>
+        <v>105.3113487798319</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461545</v>
+        <v>120.8212784615454</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256465</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085219</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314077</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530917</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662698</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665432</v>
+        <v>240.9710754359443</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>21.13839585591467</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>274.8351763665416</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>137.5908801368521</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>185.6695625267228</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104947</v>
+        <v>76.99962904513853</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>40.67096757196649</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>28.37992835703673</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271172</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>297.9378438811135</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>29.19835177652266</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>14.65678318579958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104945</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>15.04976454659493</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358049</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>48.98468859313341</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271172</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>25.01703144686101</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>155.9522295602199</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>52.26435989844018</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>41.67450974811391</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-2.344791028008331e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.060573933704291e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.119104808822158e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1020331.383586836</v>
+        <v>1020331.383586837</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834151.2682483679</v>
+        <v>834151.2682483677</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>907265.9411326248</v>
+        <v>907265.9411326249</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>907265.9411326248</v>
+        <v>907265.9411326249</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>968802.7448452334</v>
+        <v>968802.7448452337</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>968802.7448452334</v>
+        <v>968802.7448452335</v>
       </c>
     </row>
     <row r="13">
@@ -26317,7 +26317,7 @@
         <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512061.6686287164</v>
+        <v>512061.6686287167</v>
       </c>
       <c r="E2" t="n">
         <v>455962.5005656095</v>
@@ -26326,10 +26326,10 @@
         <v>455962.5005656095</v>
       </c>
       <c r="G2" t="n">
-        <v>496581.7632790849</v>
+        <v>496581.763279085</v>
       </c>
       <c r="H2" t="n">
-        <v>496581.7632790849</v>
+        <v>496581.763279085</v>
       </c>
       <c r="I2" t="n">
         <v>513151.106165177</v>
@@ -26341,19 +26341,19 @@
         <v>513151.1061651767</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651762</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="M2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651766</v>
       </c>
       <c r="N2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="O2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="P2" t="n">
         <v>513151.1061651768</v>
-      </c>
-      <c r="P2" t="n">
-        <v>513151.106165177</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.5536755253</v>
+        <v>59764.55367552381</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983335</v>
+        <v>22821.46782983344</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179686</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.9169913866</v>
+        <v>439568.9169913871</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.04987367432</v>
+        <v>41244.0498736743</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.04987367432</v>
+        <v>41244.0498736743</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.21023511657</v>
+        <v>78272.21023511658</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511654</v>
+        <v>78272.21023511658</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.85962057467</v>
+        <v>93189.85962057464</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.7509922608</v>
+        <v>93063.75099226084</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.7509922608</v>
+        <v>93063.75099226074</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226071</v>
+        <v>93063.75099226076</v>
       </c>
       <c r="M4" t="n">
         <v>93403.78684820633</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820644</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820645</v>
+        <v>93403.78684820639</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186642</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
-      <c r="O5" t="n">
-        <v>82518.59730624984</v>
-      </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15269.38059603921</v>
+        <v>15264.9670181711</v>
       </c>
       <c r="C6" t="n">
-        <v>15269.38059603927</v>
+        <v>15264.96701817116</v>
       </c>
       <c r="D6" t="n">
-        <v>-22420.70747006185</v>
+        <v>-22425.06522020649</v>
       </c>
       <c r="E6" t="n">
-        <v>-751090.011836521</v>
+        <v>-751318.7662589207</v>
       </c>
       <c r="F6" t="n">
-        <v>338148.9603271087</v>
+        <v>337920.2059047105</v>
       </c>
       <c r="G6" t="n">
-        <v>300210.8006238794</v>
+        <v>300144.523252335</v>
       </c>
       <c r="H6" t="n">
-        <v>337790.9099187533</v>
+        <v>337724.6325472091</v>
       </c>
       <c r="I6" t="n">
         <v>311403.2504129268</v>
@@ -26549,19 +26549,19 @@
         <v>330709.4134981098</v>
       </c>
       <c r="L6" t="n">
-        <v>293129.3042032353</v>
+        <v>293129.3042032359</v>
       </c>
       <c r="M6" t="n">
-        <v>135060.6220179963</v>
+        <v>135060.6220179962</v>
       </c>
       <c r="N6" t="n">
-        <v>337228.7220107208</v>
+        <v>337228.7220107207</v>
       </c>
       <c r="O6" t="n">
-        <v>337228.7220107205</v>
+        <v>337228.7220107207</v>
       </c>
       <c r="P6" t="n">
-        <v>337228.7220107207</v>
+        <v>337228.7220107206</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790935</v>
+        <v>69.78465283790761</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951236</v>
+        <v>50.70958360951245</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790935</v>
+        <v>69.78465283790761</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755389</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873727</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758428</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434003</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104723</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780167</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.627234303657</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672085</v>
+        <v>84.22861846672097</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987479</v>
+        <v>90.83829126987501</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241795</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519046</v>
+        <v>84.46220888519069</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989719</v>
+        <v>7.649035050990081</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317007</v>
+        <v>75.62456067317034</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437875</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207383</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712637</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U19" t="n">
-        <v>11.49558901075704</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571895</v>
+        <v>11.49558901075602</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571895</v>
+        <v>11.49558901075605</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>11.49558901075659</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="S25" t="n">
-        <v>11.49558901075733</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571895</v>
+        <v>11.4955890107575</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859175</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="35">
@@ -30150,19 +30150,19 @@
         <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>54.14548214544453</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30195,22 +30195,22 @@
         <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.47778196371181</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>54.14548214544423</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>55.47778196371101</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810509</v>
+        <v>54.14548214544425</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>55.4777819637102</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30669,19 +30669,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810509</v>
+        <v>55.47778196371101</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>55.47778196371046</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413439</v>
+        <v>0.2805413179413369</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366789</v>
+        <v>2.873093772366718</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993367</v>
+        <v>10.8155691599334</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362416</v>
+        <v>23.81059368362357</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208125</v>
+        <v>35.68590767208037</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102867</v>
+        <v>44.27152403102757</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396804</v>
+        <v>49.26060069396681</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356889</v>
+        <v>50.05768871356764</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328964</v>
+        <v>47.26805598328847</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661271</v>
+        <v>40.34219219661171</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783832</v>
+        <v>30.29530624783757</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313296</v>
+        <v>17.62255356313252</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588381</v>
+        <v>6.392835282588222</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288234</v>
+        <v>1.228069619288203</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530751</v>
+        <v>0.02244330543530695</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796541</v>
+        <v>0.1501028381796503</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840344</v>
+        <v>1.449677410840307</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694231</v>
+        <v>5.168014384694103</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906986</v>
+        <v>14.18142647906951</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710668</v>
+        <v>24.23831663710608</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264814</v>
+        <v>32.59140791264733</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666059</v>
+        <v>38.03263579665965</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655836</v>
+        <v>39.0392464965574</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847235</v>
+        <v>35.71328360847146</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449903</v>
+        <v>28.66305863449832</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447655</v>
+        <v>19.16049562447607</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768351</v>
+        <v>9.319542882768118</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608923</v>
+        <v>2.788094384608854</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890441</v>
+        <v>0.605019773189029</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345667</v>
+        <v>0.009875186722345421</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248689</v>
+        <v>0.1258411772486858</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811072</v>
+        <v>1.118842466811044</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078757</v>
+        <v>3.784387403078663</v>
       </c>
       <c r="J10" t="n">
-        <v>8.89697123148231</v>
+        <v>8.896971231482089</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489313</v>
+        <v>14.62045677489277</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477327</v>
+        <v>18.70915102477281</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908312</v>
+        <v>19.72617653908263</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115621</v>
+        <v>19.25713215115573</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875106</v>
+        <v>17.78707839875062</v>
       </c>
       <c r="P10" t="n">
-        <v>15.2199183828778</v>
+        <v>15.21991838287742</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852431</v>
+        <v>10.53748257852405</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381959</v>
+        <v>5.658276933381819</v>
       </c>
       <c r="S10" t="n">
-        <v>2.19306851623397</v>
+        <v>2.193068516233915</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625801</v>
+        <v>0.5376850300625666</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564862</v>
+        <v>0.006864064213564691</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019261</v>
+        <v>72.49856320019259</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573245</v>
@@ -35580,7 +35580,7 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322368</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019261</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806102</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794545</v>
+        <v>793.2729108488555</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>624.1930720027917</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>80.75159439813939</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>782.8881772547608</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>536.3528663562238</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165797</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629132</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
